--- a/medicine/Enfance/Coups_de_théâtre/Coups_de_théâtre.xlsx
+++ b/medicine/Enfance/Coups_de_théâtre/Coups_de_théâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coups_de_th%C3%A9%C3%A2tre</t>
+          <t>Coups_de_théâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coups de théâtre est un roman policier de Christian Grenier, publié en 1994, aux éditions Rageot, dans la collection Cascade policier. Le roman est présenté sous la forme d'une pièce de théâtre en cinq actes. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coups_de_th%C3%A9%C3%A2tre</t>
+          <t>Coups_de_théâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La victime
 Matilda (de son vrai nom Mathilde Goducheau) : actrice assassinée, mère de Loulou.
@@ -552,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coups_de_th%C3%A9%C3%A2tre</t>
+          <t>Coups_de_théâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,15 +586,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actes I à III
-Au début d'une représentation théâtrale, une actrice meurt assassinée, un poignard dans le dos. 
+          <t>Actes I à III</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début d'une représentation théâtrale, une actrice meurt assassinée, un poignard dans le dos. 
 L'inspecteur Germain est alors appelé pour élucider le mystère, il est aidé de Logicielle, une jeune stagiaire. 
 Mais l'enquête est bien plus énigmatique qu'il n'y paraît au premier abord. Ils vont tour à tour soupçonner tous les participants à la pièce de théâtre.
-Acte IV : Dénouement et révélations finales
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coups_de_théâtre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coups_de_th%C3%A9%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acte IV : Dénouement et révélations finales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dénouement et révélations finales
 Germain prouve que Matilda s'est suicidée mais a maquillé son suicide en meurtre de façon à faire inculper sa fille dont elle voulait se venger car elle en était jalouse  .
-Acte V : Retour sur l'enquête
-Quelques mois plus tard... les faits décrits dans les quatre premiers actes, Germain et Logicielle retournent au théâtre pour assister à la générale de la nouvelle pièce de René Brusses. Il s'agit d'une reconstitution de l'enquête faite par eux !
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coups_de_théâtre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coups_de_th%C3%A9%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acte V : Retour sur l'enquête</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques mois plus tard... les faits décrits dans les quatre premiers actes, Germain et Logicielle retournent au théâtre pour assister à la générale de la nouvelle pièce de René Brusses. Il s'agit d'une reconstitution de l'enquête faite par eux !
 </t>
         </is>
       </c>
